--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N2">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O2">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P2">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q2">
-        <v>33.54498824294045</v>
+        <v>27.18119495350556</v>
       </c>
       <c r="R2">
-        <v>301.904894186464</v>
+        <v>244.63075458155</v>
       </c>
       <c r="S2">
-        <v>0.05759681411301634</v>
+        <v>0.106058810885492</v>
       </c>
       <c r="T2">
-        <v>0.08100382402564291</v>
+        <v>0.1233043378252862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.063475</v>
       </c>
       <c r="O3">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P3">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q3">
-        <v>24.99767755546111</v>
+        <v>42.08850844763889</v>
       </c>
       <c r="R3">
-        <v>224.97909799915</v>
+        <v>378.79657602875</v>
       </c>
       <c r="S3">
-        <v>0.04292106400490445</v>
+        <v>0.164225935082551</v>
       </c>
       <c r="T3">
-        <v>0.06036393451944277</v>
+        <v>0.190929636208682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N4">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O4">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P4">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q4">
-        <v>12.33655348065622</v>
+        <v>22.92924172428889</v>
       </c>
       <c r="R4">
-        <v>111.028981325906</v>
+        <v>206.3631755186</v>
       </c>
       <c r="S4">
-        <v>0.02118188781211381</v>
+        <v>0.08946803538048476</v>
       </c>
       <c r="T4">
-        <v>0.02979008369276486</v>
+        <v>0.104015845237324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N5">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O5">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P5">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q5">
-        <v>45.87497596931067</v>
+        <v>44.08122903788333</v>
       </c>
       <c r="R5">
-        <v>275.249855815864</v>
+        <v>264.4873742273</v>
       </c>
       <c r="S5">
-        <v>0.07876742851145703</v>
+        <v>0.172001368671467</v>
       </c>
       <c r="T5">
-        <v>0.073852035236703</v>
+        <v>0.1333129213374283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N6">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O6">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P6">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q6">
-        <v>7.842824225670667</v>
+        <v>13.14534914796667</v>
       </c>
       <c r="R6">
-        <v>70.585418031036</v>
+        <v>118.3081423317</v>
       </c>
       <c r="S6">
-        <v>0.0134661453978026</v>
+        <v>0.05129208269514117</v>
       </c>
       <c r="T6">
-        <v>0.01893870848423906</v>
+        <v>0.05963235151893776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N7">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O7">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P7">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q7">
-        <v>21.15924273434667</v>
+        <v>10.18303294265667</v>
       </c>
       <c r="R7">
-        <v>190.43318460912</v>
+        <v>91.64729648391</v>
       </c>
       <c r="S7">
-        <v>0.03633046348730897</v>
+        <v>0.03973336591541835</v>
       </c>
       <c r="T7">
-        <v>0.05109495232360346</v>
+        <v>0.04619414768905956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>28.063475</v>
       </c>
       <c r="O8">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P8">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q8">
         <v>15.76783760841667</v>
@@ -948,10 +948,10 @@
         <v>141.91053847575</v>
       </c>
       <c r="S8">
-        <v>0.0270734097480964</v>
+        <v>0.06152481926731972</v>
       </c>
       <c r="T8">
-        <v>0.03807588584163228</v>
+        <v>0.07152896620506058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N9">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O9">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P9">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q9">
-        <v>7.781553766303333</v>
+        <v>8.590101510546669</v>
       </c>
       <c r="R9">
-        <v>70.03398389673001</v>
+        <v>77.31091359492001</v>
       </c>
       <c r="S9">
-        <v>0.01336094389249153</v>
+        <v>0.03351787708938637</v>
       </c>
       <c r="T9">
-        <v>0.01879075369967877</v>
+        <v>0.03896799903101182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N10">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O10">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P10">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q10">
-        <v>28.93665500602</v>
+        <v>16.51438092451</v>
       </c>
       <c r="R10">
-        <v>173.61993003612</v>
+        <v>99.08628554706</v>
       </c>
       <c r="S10">
-        <v>0.04968429642496496</v>
+        <v>0.0644377705380349</v>
       </c>
       <c r="T10">
-        <v>0.04658380347853551</v>
+        <v>0.0499437155718479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N11">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O11">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P11">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q11">
-        <v>4.94703471982</v>
+        <v>4.92471076586</v>
       </c>
       <c r="R11">
-        <v>44.52331247838</v>
+        <v>44.32239689274</v>
       </c>
       <c r="S11">
-        <v>0.008494068833906203</v>
+        <v>0.01921582066849972</v>
       </c>
       <c r="T11">
-        <v>0.01194600895343519</v>
+        <v>0.02234037911151916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N12">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O12">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P12">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q12">
-        <v>6.914809410835556</v>
+        <v>1.627476527261667</v>
       </c>
       <c r="R12">
-        <v>62.23328469752001</v>
+        <v>14.647288745355</v>
       </c>
       <c r="S12">
-        <v>0.01187274204356437</v>
+        <v>0.006350280976265952</v>
       </c>
       <c r="T12">
-        <v>0.01669775528402702</v>
+        <v>0.00738285847489259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>28.063475</v>
       </c>
       <c r="O13">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P13">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q13">
-        <v>5.152906143763889</v>
+        <v>2.520053282541666</v>
       </c>
       <c r="R13">
-        <v>46.376155293875</v>
+        <v>22.680479542875</v>
       </c>
       <c r="S13">
-        <v>0.008847550494123316</v>
+        <v>0.009833042843467033</v>
       </c>
       <c r="T13">
-        <v>0.01244314350230685</v>
+        <v>0.01143192938425851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N14">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O14">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P14">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q14">
-        <v>2.543000328022778</v>
+        <v>1.372890439806667</v>
       </c>
       <c r="R14">
-        <v>22.887002952205</v>
+        <v>12.35601395826</v>
       </c>
       <c r="S14">
-        <v>0.004366336816746147</v>
+        <v>0.005356906779522447</v>
       </c>
       <c r="T14">
-        <v>0.006140790677178446</v>
+        <v>0.00622795822172618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N15">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O15">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P15">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q15">
-        <v>9.456456304503334</v>
+        <v>2.639367609655</v>
       </c>
       <c r="R15">
-        <v>56.73873782702</v>
+        <v>15.83620565793</v>
       </c>
       <c r="S15">
-        <v>0.01623675501072695</v>
+        <v>0.01029859763886468</v>
       </c>
       <c r="T15">
-        <v>0.01522351847512077</v>
+        <v>0.00798212332564738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N16">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O16">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P16">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q16">
-        <v>1.616683671803333</v>
+        <v>0.78707897933</v>
       </c>
       <c r="R16">
-        <v>14.55015304623</v>
+        <v>7.083710813970001</v>
       </c>
       <c r="S16">
-        <v>0.002775849204359211</v>
+        <v>0.003071118130144628</v>
       </c>
       <c r="T16">
-        <v>0.003903938159329882</v>
+        <v>0.003570492486754018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N17">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O17">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P17">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q17">
-        <v>89.13607325166934</v>
+        <v>6.441214329862833</v>
       </c>
       <c r="R17">
-        <v>534.816439510016</v>
+        <v>38.647285979177</v>
       </c>
       <c r="S17">
-        <v>0.1530468219174603</v>
+        <v>0.02513309417236412</v>
       </c>
       <c r="T17">
-        <v>0.1434961061788332</v>
+        <v>0.01947988107447179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>28.063475</v>
       </c>
       <c r="O18">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P18">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q18">
-        <v>66.42407508293333</v>
+        <v>9.973847882670833</v>
       </c>
       <c r="R18">
-        <v>398.5444504976</v>
+        <v>59.843087296025</v>
       </c>
       <c r="S18">
-        <v>0.1140502741415</v>
+        <v>0.03891714283342884</v>
       </c>
       <c r="T18">
-        <v>0.1069330943491262</v>
+        <v>0.0301634692869221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N19">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O19">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P19">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q19">
-        <v>32.78081145121067</v>
+        <v>5.433615432287334</v>
       </c>
       <c r="R19">
-        <v>196.684868707264</v>
+        <v>32.601692593724</v>
       </c>
       <c r="S19">
-        <v>0.05628472098291951</v>
+        <v>0.02120152526565541</v>
       </c>
       <c r="T19">
-        <v>0.05277233592453705</v>
+        <v>0.01643264406443465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N20">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O20">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P20">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q20">
-        <v>121.899438115904</v>
+        <v>10.4460692269955</v>
       </c>
       <c r="R20">
-        <v>487.597752463616</v>
+        <v>41.784276907982</v>
       </c>
       <c r="S20">
-        <v>0.2093015870744995</v>
+        <v>0.0407597120927823</v>
       </c>
       <c r="T20">
-        <v>0.1308269037581989</v>
+        <v>0.02106105834673207</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N21">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O21">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P21">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q21">
-        <v>20.840029801664</v>
+        <v>3.115095250513</v>
       </c>
       <c r="R21">
-        <v>125.040178809984</v>
+        <v>18.690571503078</v>
       </c>
       <c r="S21">
-        <v>0.03578237422243753</v>
+        <v>0.01215484818197234</v>
       </c>
       <c r="T21">
-        <v>0.03354941518173305</v>
+        <v>0.009420845497146712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N22">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O22">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P22">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q22">
-        <v>6.046010804576</v>
+        <v>1.186360179239556</v>
       </c>
       <c r="R22">
-        <v>54.414097241184</v>
+        <v>10.677241613156</v>
       </c>
       <c r="S22">
-        <v>0.0103810130417839</v>
+        <v>0.00462908088136938</v>
       </c>
       <c r="T22">
-        <v>0.01459979630113831</v>
+        <v>0.005381785332603824</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>28.063475</v>
       </c>
       <c r="O23">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P23">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q23">
-        <v>4.50547865735</v>
+        <v>1.837010128188889</v>
       </c>
       <c r="R23">
-        <v>40.54930791615</v>
+        <v>16.5330911537</v>
       </c>
       <c r="S23">
-        <v>0.007735916162443805</v>
+        <v>0.007167864036646832</v>
       </c>
       <c r="T23">
-        <v>0.01087974745044292</v>
+        <v>0.008333383349118062</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N24">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O24">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P24">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q24">
-        <v>2.223489693754</v>
+        <v>1.000777904296889</v>
       </c>
       <c r="R24">
-        <v>20.011407243786</v>
+        <v>9.007001138672001</v>
       </c>
       <c r="S24">
-        <v>0.003817736397636338</v>
+        <v>0.003904953945982192</v>
       </c>
       <c r="T24">
-        <v>0.005369242241829794</v>
+        <v>0.004539912870298245</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N25">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O25">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P25">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q25">
-        <v>8.268317113764001</v>
+        <v>1.923985125449333</v>
       </c>
       <c r="R25">
-        <v>49.609902682584</v>
+        <v>11.543910752696</v>
       </c>
       <c r="S25">
-        <v>0.01419671756567568</v>
+        <v>0.007507233398515964</v>
       </c>
       <c r="T25">
-        <v>0.01331078728504256</v>
+        <v>0.00581862355659322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1963773333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.589132</v>
+      </c>
+      <c r="I26">
+        <v>0.02544784489173709</v>
+      </c>
+      <c r="J26">
+        <v>0.02667644010085692</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.481638</v>
-      </c>
-      <c r="H26">
-        <v>1.444914</v>
-      </c>
-      <c r="I26">
-        <v>0.03855846586560088</v>
-      </c>
-      <c r="J26">
-        <v>0.04757300825393079</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N26">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O26">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P26">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q26">
-        <v>1.413558402924</v>
+        <v>0.5737466214426666</v>
       </c>
       <c r="R26">
-        <v>12.722025626316</v>
+        <v>5.163719592984</v>
       </c>
       <c r="S26">
-        <v>0.002427082698061163</v>
+        <v>0.002238712629222721</v>
       </c>
       <c r="T26">
-        <v>0.003413434975477204</v>
+        <v>0.002602734992243568</v>
       </c>
     </row>
   </sheetData>
